--- a/nutrigenius/src/Components/Assets/NutriGenius.xlsx
+++ b/nutrigenius/src/Components/Assets/NutriGenius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutriGenius\nutrigenius\src\Components\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37507ADB-542B-45D3-8702-F139E9DB3F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76C53F-8042-40D6-A880-F5EFD90C8C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{198455C0-2548-4F33-959D-D27649D0E82D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Age</t>
   </si>
@@ -59,21 +59,6 @@
     <t>Thyroid Diseases</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Fruits, Vegetables, Chicken, Fish</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Low-fat dairy, Whole grains, Salmon</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
     <t>Legumes, Fish, Olive oil, Vegetables</t>
   </si>
   <si>
-    <t>Borderline</t>
-  </si>
-  <si>
     <t>Leafy greens, Poultry, Fruits</t>
   </si>
   <si>
@@ -105,6 +87,9 @@
   </si>
   <si>
     <t>Diet Plan</t>
+  </si>
+  <si>
+    <t>Fruits, Vegetables, Chicken, Fish, Milk</t>
   </si>
 </sst>
 </file>
@@ -496,7 +481,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -542,11 +527,11 @@
       <c r="B2" s="2">
         <v>22.5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -558,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -568,11 +553,11 @@
       <c r="B3" s="2">
         <v>27.8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -584,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -594,11 +579,11 @@
       <c r="B4" s="2">
         <v>30.1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -610,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -620,11 +605,11 @@
       <c r="B5" s="2">
         <v>33.200000000000003</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -636,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -646,11 +631,11 @@
       <c r="B6" s="2">
         <v>24.5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -662,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -672,23 +657,23 @@
       <c r="B7" s="2">
         <v>31.7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -698,11 +683,11 @@
       <c r="B8" s="2">
         <v>26.5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -714,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -724,11 +709,11 @@
       <c r="B9" s="2">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -740,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -750,11 +735,11 @@
       <c r="B10" s="2">
         <v>29.4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -766,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -776,11 +761,11 @@
       <c r="B11" s="2">
         <v>25.2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -792,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">

--- a/nutrigenius/src/Components/Assets/NutriGenius.xlsx
+++ b/nutrigenius/src/Components/Assets/NutriGenius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutriGenius\nutrigenius\src\Components\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76C53F-8042-40D6-A880-F5EFD90C8C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A13533D-442B-4A41-9613-56117F670A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{198455C0-2548-4F33-959D-D27649D0E82D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Fruits, Vegetables, Chicken, Fish, Milk</t>
+  </si>
+  <si>
+    <t>Green vegetables, Yellow fruits, Nuts</t>
+  </si>
+  <si>
+    <t>Fresh Milk, Oats, Chicken, Vegetables</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,6 +148,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -481,7 +490,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,10 +790,56 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="4">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>

--- a/nutrigenius/src/Components/Assets/NutriGenius.xlsx
+++ b/nutrigenius/src/Components/Assets/NutriGenius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutriGenius\nutrigenius\src\Components\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A13533D-442B-4A41-9613-56117F670A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AAA824-A945-457A-AF39-AD44DB74C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{198455C0-2548-4F33-959D-D27649D0E82D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Age</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Fresh Milk, Oats, Chicken, Vegetables</t>
+  </si>
+  <si>
+    <t>Breakfast - 1/2 cup of fresh fruit (like berries or apple slices) for natural fiber and vitamins | Lunch - 1/2 cup of cooked brown rice or quinoa for complex carbs and fiber | Dinner - 1 small portion of fruit for dessert, such as a slice of melon or a few strawberries</t>
+  </si>
+  <si>
+    <t>Breakfast - 1 small bowl of oatmeal with milk, topped with fresh fruit (like bananas, strawberries, or apples) | Lunch - 1-2 cups of vegetables: A mix of greens, carrots, cucumber, and tomatoes, either cooked or in a salad with a light dressing | Dinner - 1 small serving of fruit for dessert (like a slice of melon</t>
+  </si>
+  <si>
+    <t>Breakfast - 1 cup of green tea or coffee (without added sugar) if preferred for a light energy boost | Lunch - 1-2 cups of mixed salad: Include greens, cucumbers, carrots, and tomatoes with a light olive oil and lemon dressing for added fiber, antioxidants, and vitamins | Dinner - 1 cup of steamed or roasted vegetables: Choose a mix of vegetables like broccoli, zucchini, and bell peppers for fiber and a range of nutrients</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +502,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +512,7 @@
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="34.54296875" customWidth="1"/>
+    <col min="8" max="8" width="255" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -842,60 +854,213 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/nutrigenius/src/Components/Assets/NutriGenius.xlsx
+++ b/nutrigenius/src/Components/Assets/NutriGenius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutriGenius\nutrigenius\src\Components\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AAA824-A945-457A-AF39-AD44DB74C82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D813CE8-33BB-4C82-AA36-7C93860B048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{198455C0-2548-4F33-959D-D27649D0E82D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Age</t>
   </si>
@@ -59,45 +59,12 @@
     <t>Thyroid Diseases</t>
   </si>
   <si>
-    <t>Low-fat dairy, Whole grains, Salmon</t>
-  </si>
-  <si>
-    <t>Oats, Lean meats, Leafy greens</t>
-  </si>
-  <si>
-    <t>Whole grains, Vegetables, Olive oil</t>
-  </si>
-  <si>
-    <t>Fruits, Lean meats, Avocado, Nuts</t>
-  </si>
-  <si>
-    <t>Legumes, Fish, Olive oil, Vegetables</t>
-  </si>
-  <si>
-    <t>Leafy greens, Poultry, Fruits</t>
-  </si>
-  <si>
-    <t>High-fiber foods, Salmon, Berries</t>
-  </si>
-  <si>
-    <t>Nuts, Vegetables, Whole grains</t>
-  </si>
-  <si>
-    <t>Lean meats, Olive oil, Fruits, Nuts</t>
-  </si>
-  <si>
     <t>Diet Plan</t>
   </si>
   <si>
-    <t>Fruits, Vegetables, Chicken, Fish, Milk</t>
-  </si>
-  <si>
     <t>Green vegetables, Yellow fruits, Nuts</t>
   </si>
   <si>
-    <t>Fresh Milk, Oats, Chicken, Vegetables</t>
-  </si>
-  <si>
     <t>Breakfast - 1/2 cup of fresh fruit (like berries or apple slices) for natural fiber and vitamins | Lunch - 1/2 cup of cooked brown rice or quinoa for complex carbs and fiber | Dinner - 1 small portion of fruit for dessert, such as a slice of melon or a few strawberries</t>
   </si>
   <si>
@@ -105,6 +72,54 @@
   </si>
   <si>
     <t>Breakfast - 1 cup of green tea or coffee (without added sugar) if preferred for a light energy boost | Lunch - 1-2 cups of mixed salad: Include greens, cucumbers, carrots, and tomatoes with a light olive oil and lemon dressing for added fiber, antioxidants, and vitamins | Dinner - 1 cup of steamed or roasted vegetables: Choose a mix of vegetables like broccoli, zucchini, and bell peppers for fiber and a range of nutrients</t>
+  </si>
+  <si>
+    <t>Breakfast - Egg omlet, milk, bananas | Lunch - Balanced meal with 1 cup of rice, green vegetables, carrots, cucumber, tomatoes | Dinner - Salads with half boiled egg</t>
+  </si>
+  <si>
+    <t>Breakfast - Yellow fruits, milk with law sugar, yogurt | Lunch - Salads with law salt and pepper, Fruit juices with law sugar | Dinner - String hoppers, lemon juice, water</t>
+  </si>
+  <si>
+    <t>Breakfast - Hoppers, fruit juices without sugar, fresh yellow fruits | Lunch - Boiled vegetables, half boiled egg omlet with law salt and pepper | Dinner - Brocali salad with olive oil, lemon juice without sugar</t>
+  </si>
+  <si>
+    <t>Breakfast - Sandwich (brown bread)  with avacado toast, milk | Lunch - 1 rice cup with green vegetables, omlet | Dinner - Salads with olive oil, lemon juice without sugar</t>
+  </si>
+  <si>
+    <t>Breakfast - boiled vegetables, milk without sugar | Lunch - 1 rice cup, green vegetables, meat | Dinner - Salads with cucumber, tomatoes and olive oil, water</t>
+  </si>
+  <si>
+    <t>Breakfast - Omlet, Fresh Milk, Oats | Lunch - 1 cup rice, Chicken, Vegetables | Dinner - Half boiled egg with boiled green vegetables, lemon juice without sugar</t>
+  </si>
+  <si>
+    <t>Breakfast - Sandwich (brown bread) with avacado toast, boiled egg, nuts | Lunch - Lean meats, Olive oil, Fruits | Dinner - Fresh fruits, water</t>
+  </si>
+  <si>
+    <t>Breakfast - Nuts, milk | Lunch - 1cup rice with vegetables, Whole grains | Dinner - Fruit juices without sugar, fresh fruits</t>
+  </si>
+  <si>
+    <t>Breakfast - High-fiber foods, Salmon, Berries | Lunch - 1 cup rice, green vegetables, meat | Dinner - Salads (cucumber, tomatoes with olive oil), lemon juice without sugar</t>
+  </si>
+  <si>
+    <t>Breakfast - Leafy greens, Poultry, Fruits | Lunch - 1 rice cup with yellow vegetables, water | Dinner - nuts, milk without sugar</t>
+  </si>
+  <si>
+    <t>Breakfast - Yougurt, fresh fruits, honey | Lunch - Legumes, Fish, Olive oil, Vegetables | Dinner - Boiled green vegetables with half boiled egg</t>
+  </si>
+  <si>
+    <t>Breakfast - Fruits, Lean meats, Avocado, Nuts | Lunch - 1 rice cup with vegetables, meat | Dinner - fresh fruits, water</t>
+  </si>
+  <si>
+    <t>Breakfast - Whole grains, Vegetables, Olive oil | Lunch - Boiled vegetables, half boiled egg with law salt and pepper | Dinner - Milk with law sugar, fresh fruits, nuts</t>
+  </si>
+  <si>
+    <t>Breakfast - Oats, milk, nuts | Lunch - vegetables, Lean meats | Dinner - Leafy greens, lemon juice without sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast - Low-fat dairy, Whole grains, Salmon | Lunch - 1 rice cup with green and yellow vegetables, meat | Dinner - Half boiled egg with law salt and pepper, fresh fruits </t>
+  </si>
+  <si>
+    <t>Breakfast - Yellow fruits, nuts, fresh milk | Lunch -  Vegetables, Chicken | Dinner - Fresh fruits, water, fruit juices</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -564,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -590,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -616,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -642,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -668,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -694,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -720,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -746,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -772,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -798,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -850,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -876,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -902,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -928,58 +943,138 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="4">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="4">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="4">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="4">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="4">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
